--- a/CashFlow/FE_cashflow.xlsx
+++ b/CashFlow/FE_cashflow.xlsx
@@ -760,13 +760,13 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1231000000.0</v>
+        <v>303000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1213000000.0</v>
+        <v>574000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>873000000.0</v>
+        <v>560000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>580000000.0</v>
@@ -1018,19 +1018,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-29000000.0</v>
+        <v>3470000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-138000000.0</v>
+        <v>3498000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>32000000.0</v>
+        <v>2775000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>110000000.0</v>
+        <v>1973000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>83000000.0</v>
+        <v>1047000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-42000000.0</v>
